--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_14_3.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_14_3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,386 +518,386 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_14_3_0</t>
+          <t>model_14_3_3</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9551147958826826</v>
+        <v>0.967950650210102</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7042877390162341</v>
+        <v>0.8271708764804864</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.6431992323395122</v>
+        <v>0.9634253173809693</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9126888957095963</v>
+        <v>0.7223347085644255</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6112899800344556</v>
+        <v>0.8973858512796186</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3001475666098629</v>
+        <v>0.2143141496187348</v>
       </c>
       <c r="H2" t="n">
-        <v>1.977429250828203</v>
+        <v>1.155709144779927</v>
       </c>
       <c r="I2" t="n">
-        <v>1.40165570217949</v>
+        <v>0.07306274750738546</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2140287545910778</v>
+        <v>0.2883863719958957</v>
       </c>
       <c r="K2" t="n">
-        <v>0.8078419911792063</v>
+        <v>0.1807245597516406</v>
       </c>
       <c r="L2" t="n">
-        <v>0.8518763895586062</v>
+        <v>0.7954527186672267</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5478572502120082</v>
+        <v>0.4629407625374274</v>
       </c>
       <c r="N2" t="n">
-        <v>1.021984589771747</v>
+        <v>1.01569764071342</v>
       </c>
       <c r="O2" t="n">
-        <v>0.5711806675743853</v>
+        <v>0.4826491092181354</v>
       </c>
       <c r="P2" t="n">
-        <v>148.406962073128</v>
+        <v>149.08062470306</v>
       </c>
       <c r="Q2" t="n">
-        <v>237.3848972885066</v>
+        <v>238.0585599184387</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_14_3_1</t>
+          <t>model_14_3_2</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9534203688092254</v>
+        <v>0.9653363853447479</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7011527582655104</v>
+        <v>0.8262805222423322</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.7304833084098044</v>
+        <v>0.9828135169163804</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8939909035528432</v>
+        <v>0.8032876865631684</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5823500391744288</v>
+        <v>0.9322510126069095</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3114782082521897</v>
+        <v>0.2317957508109407</v>
       </c>
       <c r="H3" t="n">
-        <v>1.998392881543551</v>
+        <v>1.161662947670168</v>
       </c>
       <c r="I3" t="n">
-        <v>1.476109377987997</v>
+        <v>0.03433226440152572</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2598637947865721</v>
+        <v>0.2043076759996486</v>
       </c>
       <c r="K3" t="n">
-        <v>0.8679868247264475</v>
+        <v>0.1193198605934916</v>
       </c>
       <c r="L3" t="n">
-        <v>0.889485698202257</v>
+        <v>0.851554107558015</v>
       </c>
       <c r="M3" t="n">
-        <v>0.558102327760949</v>
+        <v>0.4814517118163987</v>
       </c>
       <c r="N3" t="n">
-        <v>1.022814513236298</v>
+        <v>1.016978096974001</v>
       </c>
       <c r="O3" t="n">
-        <v>0.5818618992848189</v>
+        <v>0.50194810793086</v>
       </c>
       <c r="P3" t="n">
-        <v>148.3328518013172</v>
+        <v>148.9237973590348</v>
       </c>
       <c r="Q3" t="n">
-        <v>237.3107870166959</v>
+        <v>237.9017325744134</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_14_3_2</t>
+          <t>model_14_3_4</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9516010249921084</v>
+        <v>0.9679567402053428</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6980566066828251</v>
+        <v>0.8257427007453516</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.8117836920075281</v>
+        <v>0.9340924012742775</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8749188976929996</v>
+        <v>0.5983956937734031</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5544177255630625</v>
+        <v>0.8442061119090775</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3236441687345594</v>
+        <v>0.214273425792517</v>
       </c>
       <c r="H4" t="n">
-        <v>2.019096861433435</v>
+        <v>1.165259362496918</v>
       </c>
       <c r="I4" t="n">
-        <v>1.545458939511882</v>
+        <v>0.1316591122518716</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3066156678147625</v>
+        <v>0.4171108612524931</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9260375429663541</v>
+        <v>0.2743849867521824</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9227148051278948</v>
+        <v>0.7382019063900579</v>
       </c>
       <c r="M4" t="n">
-        <v>0.5688973270587228</v>
+        <v>0.4628967766063153</v>
       </c>
       <c r="N4" t="n">
-        <v>1.023705620412029</v>
+        <v>1.015694657858608</v>
       </c>
       <c r="O4" t="n">
-        <v>0.593116464051428</v>
+        <v>0.4826032507148724</v>
       </c>
       <c r="P4" t="n">
-        <v>148.2562212226976</v>
+        <v>149.0810047777862</v>
       </c>
       <c r="Q4" t="n">
-        <v>237.2341564380762</v>
+        <v>238.0589399931648</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_14_3_3</t>
+          <t>model_14_3_1</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9497257991737438</v>
+        <v>0.9599490156437509</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6950478665894706</v>
+        <v>0.822888577102791</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.8871646148393721</v>
+        <v>0.9936690174913974</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8559417649534351</v>
+        <v>0.8424848476069997</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5277562733585984</v>
+        <v>0.9499649337000429</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3361838124165849</v>
+        <v>0.2678211168080637</v>
       </c>
       <c r="H5" t="n">
-        <v>2.039216320291671</v>
+        <v>1.184344900436752</v>
       </c>
       <c r="I5" t="n">
-        <v>1.609759176661078</v>
+        <v>0.01264697171313336</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3531349750548724</v>
+        <v>0.16359705276141</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9814470758579751</v>
+        <v>0.08812201282149154</v>
       </c>
       <c r="L5" t="n">
-        <v>0.9521137303519542</v>
+        <v>0.9059744091653253</v>
       </c>
       <c r="M5" t="n">
-        <v>0.5798136014415193</v>
+        <v>0.5175143638664184</v>
       </c>
       <c r="N5" t="n">
-        <v>1.024624098363881</v>
+        <v>1.019616808664285</v>
       </c>
       <c r="O5" t="n">
-        <v>0.6044974668345033</v>
+        <v>0.5395460217386301</v>
       </c>
       <c r="P5" t="n">
-        <v>148.1801944156769</v>
+        <v>148.6348719918568</v>
       </c>
       <c r="Q5" t="n">
-        <v>237.1581296310556</v>
+        <v>237.6128072072354</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_14_3_4</t>
+          <t>model_14_3_5</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9478459663034986</v>
+        <v>0.9660581682553051</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6921602866608074</v>
+        <v>0.8226199415752774</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.9567818513894029</v>
+        <v>0.8967340586860625</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8373973237139849</v>
+        <v>0.4480308812465001</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5025327139396425</v>
+        <v>0.7786834128073482</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3487542634757482</v>
+        <v>0.2269691851645391</v>
       </c>
       <c r="H6" t="n">
-        <v>2.058525580570724</v>
+        <v>1.186141267446188</v>
       </c>
       <c r="I6" t="n">
-        <v>1.669142965711052</v>
+        <v>0.2062873238005052</v>
       </c>
       <c r="J6" t="n">
-        <v>0.398593610532275</v>
+        <v>0.5732814886156827</v>
       </c>
       <c r="K6" t="n">
-        <v>1.033868288121663</v>
+        <v>0.3897838971029071</v>
       </c>
       <c r="L6" t="n">
-        <v>0.9781587385518775</v>
+        <v>0.6850244788982295</v>
       </c>
       <c r="M6" t="n">
-        <v>0.5905542002862635</v>
+        <v>0.4764128306044445</v>
       </c>
       <c r="N6" t="n">
-        <v>1.02554483283094</v>
+        <v>1.016624570650463</v>
       </c>
       <c r="O6" t="n">
-        <v>0.615695315208173</v>
+        <v>0.4966947111137908</v>
       </c>
       <c r="P6" t="n">
-        <v>148.1067754418024</v>
+        <v>148.9658820377784</v>
       </c>
       <c r="Q6" t="n">
-        <v>237.0847106571811</v>
+        <v>237.943817253157</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_14_3_5</t>
+          <t>model_14_3_6</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9459989454080971</v>
+        <v>0.9630982156025145</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6894160063417298</v>
+        <v>0.8185481522024323</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.020864864266979</v>
+        <v>0.8549565835889865</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8195242419479538</v>
+        <v>0.2916662088338003</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4788405954632533</v>
+        <v>0.7088847912739606</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3611053007080474</v>
+        <v>0.2467624021830787</v>
       </c>
       <c r="H7" t="n">
-        <v>2.076876595700645</v>
+        <v>1.213369341731269</v>
       </c>
       <c r="I7" t="n">
-        <v>1.72380603921116</v>
+        <v>0.2897433347878847</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4424065191213672</v>
+        <v>0.7356836396093659</v>
       </c>
       <c r="K7" t="n">
-        <v>1.083106762002312</v>
+        <v>0.5127135837513463</v>
       </c>
       <c r="L7" t="n">
-        <v>1.001255240721137</v>
+        <v>0.6389265487348371</v>
       </c>
       <c r="M7" t="n">
-        <v>0.6009203780103046</v>
+        <v>0.4967518517158025</v>
       </c>
       <c r="N7" t="n">
-        <v>1.026449496126646</v>
+        <v>1.01807434337836</v>
       </c>
       <c r="O7" t="n">
-        <v>0.6265028025788727</v>
+        <v>0.5178996064614372</v>
       </c>
       <c r="P7" t="n">
-        <v>148.0371713429419</v>
+        <v>148.798658679583</v>
       </c>
       <c r="Q7" t="n">
-        <v>237.0151065583206</v>
+        <v>237.7765938949616</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_14_3_6</t>
+          <t>model_14_3_0</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9442110780596166</v>
+        <v>0.9518620836711638</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6868285178633302</v>
+        <v>0.8169927370471246</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.079692906707597</v>
+        <v>0.9986812482848718</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8024813670106528</v>
+        <v>0.8515662495212029</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4567171272428139</v>
+        <v>0.9554851957102289</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3730607778997093</v>
+        <v>0.3218984681456516</v>
       </c>
       <c r="H8" t="n">
-        <v>2.094179143069992</v>
+        <v>1.22377041003684</v>
       </c>
       <c r="I8" t="n">
-        <v>1.773986601319598</v>
+        <v>0.00263438030593343</v>
       </c>
       <c r="J8" t="n">
-        <v>0.4841843127608751</v>
+        <v>0.1541650040630177</v>
       </c>
       <c r="K8" t="n">
-        <v>1.129085166728215</v>
+        <v>0.07839969933991575</v>
       </c>
       <c r="L8" t="n">
-        <v>1.021765605010244</v>
+        <v>0.9637439660381023</v>
       </c>
       <c r="M8" t="n">
-        <v>0.6107870151695346</v>
+        <v>0.5673609681196369</v>
       </c>
       <c r="N8" t="n">
-        <v>1.027325186256514</v>
+        <v>1.023577754936573</v>
       </c>
       <c r="O8" t="n">
-        <v>0.6367894829087257</v>
+        <v>0.5915146991316038</v>
       </c>
       <c r="P8" t="n">
-        <v>147.9720278583626</v>
+        <v>148.2670381989564</v>
       </c>
       <c r="Q8" t="n">
-        <v>236.9499630737413</v>
+        <v>237.2449734143351</v>
       </c>
     </row>
     <row r="9">
@@ -907,52 +907,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9425006079968223</v>
+        <v>0.9596634535110975</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6844045063912634</v>
+        <v>0.8140666194724764</v>
       </c>
       <c r="D9" t="n">
-        <v>-1.133561911553962</v>
+        <v>0.8117088713658827</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7863689313610475</v>
+        <v>0.1417468026202131</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4361595744239076</v>
+        <v>0.640153206128585</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3844986990856045</v>
+        <v>0.2697306721040096</v>
       </c>
       <c r="H9" t="n">
-        <v>2.110388518945249</v>
+        <v>1.243337371732045</v>
       </c>
       <c r="I9" t="n">
-        <v>1.819937083968096</v>
+        <v>0.3761363381487554</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5236812881289089</v>
+        <v>0.8913916628418876</v>
       </c>
       <c r="K9" t="n">
-        <v>1.171809186048502</v>
+        <v>0.6337640004953216</v>
       </c>
       <c r="L9" t="n">
-        <v>1.039998007865289</v>
+        <v>0.5995937288726395</v>
       </c>
       <c r="M9" t="n">
-        <v>0.620079590928136</v>
+        <v>0.519356016720717</v>
       </c>
       <c r="N9" t="n">
-        <v>1.028162967511761</v>
+        <v>1.019756675831299</v>
       </c>
       <c r="O9" t="n">
-        <v>0.6464776628556544</v>
+        <v>0.5414660775676831</v>
       </c>
       <c r="P9" t="n">
-        <v>147.9116297468692</v>
+        <v>148.6206626571091</v>
       </c>
       <c r="Q9" t="n">
-        <v>236.8895649622478</v>
+        <v>237.5985978724878</v>
       </c>
     </row>
     <row r="10">
@@ -962,52 +962,52 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9408790527851065</v>
+        <v>0.9560866228455517</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6821458437706704</v>
+        <v>0.8094987269532332</v>
       </c>
       <c r="D10" t="n">
-        <v>-1.182797304659683</v>
+        <v>0.7688775425673112</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7712424501382373</v>
+        <v>0.003568786278064562</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4171344279506148</v>
+        <v>0.5751198794322278</v>
       </c>
       <c r="G10" t="n">
-        <v>0.395342046252923</v>
+        <v>0.2936489552343053</v>
       </c>
       <c r="H10" t="n">
-        <v>2.12549220628934</v>
+        <v>1.273882890041436</v>
       </c>
       <c r="I10" t="n">
-        <v>1.861935076747965</v>
+        <v>0.4616975607576303</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5607613590291141</v>
+        <v>1.034904943225179</v>
       </c>
       <c r="K10" t="n">
-        <v>1.211348460623475</v>
+        <v>0.7483010256809073</v>
       </c>
       <c r="L10" t="n">
-        <v>1.056217266442111</v>
+        <v>0.566447340885944</v>
       </c>
       <c r="M10" t="n">
-        <v>0.6287623130030321</v>
+        <v>0.5418938597495873</v>
       </c>
       <c r="N10" t="n">
-        <v>1.028957198635866</v>
+        <v>1.021508592891975</v>
       </c>
       <c r="O10" t="n">
-        <v>0.6555300263849915</v>
+        <v>0.5649634032340592</v>
       </c>
       <c r="P10" t="n">
-        <v>147.8560078978197</v>
+        <v>148.4507405097606</v>
       </c>
       <c r="Q10" t="n">
-        <v>236.8339431131983</v>
+        <v>237.4286757251392</v>
       </c>
     </row>
     <row r="11">
@@ -1017,52 +1017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9393532511378557</v>
+        <v>0.9525466995116508</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6800506721275678</v>
+        <v>0.8050281816331588</v>
       </c>
       <c r="D11" t="n">
-        <v>-1.227713372599129</v>
+        <v>0.7275870020236845</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7571223181589141</v>
+        <v>-0.1214052295875043</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3995894284750441</v>
+        <v>0.5148534186497062</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4055450888937604</v>
+        <v>0.3173204388679486</v>
       </c>
       <c r="H11" t="n">
-        <v>2.139502628714145</v>
+        <v>1.303777447181741</v>
       </c>
       <c r="I11" t="n">
-        <v>1.90024866739952</v>
+        <v>0.5441808558173866</v>
       </c>
       <c r="J11" t="n">
-        <v>0.5953745309361422</v>
+        <v>1.164704396527002</v>
       </c>
       <c r="K11" t="n">
-        <v>1.247811599167831</v>
+        <v>0.8544426224151926</v>
       </c>
       <c r="L11" t="n">
-        <v>1.07066659152951</v>
+        <v>0.5386350225495453</v>
       </c>
       <c r="M11" t="n">
-        <v>0.6368242213466447</v>
+        <v>0.5633120262056799</v>
       </c>
       <c r="N11" t="n">
-        <v>1.029704530054928</v>
+        <v>1.023242432892253</v>
       </c>
       <c r="O11" t="n">
-        <v>0.6639351468572425</v>
+        <v>0.5872933853779044</v>
       </c>
       <c r="P11" t="n">
-        <v>147.8050464365641</v>
+        <v>148.2956863350079</v>
       </c>
       <c r="Q11" t="n">
-        <v>236.7829816519427</v>
+        <v>237.2736215503865</v>
       </c>
     </row>
     <row r="12">
@@ -1072,52 +1072,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9379263689162842</v>
+        <v>0.9491382437983676</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6781145150408283</v>
+        <v>0.8007558167901609</v>
       </c>
       <c r="D12" t="n">
-        <v>-1.268625038415174</v>
+        <v>0.6884781800853499</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7440050536636138</v>
+        <v>-0.233458617343189</v>
       </c>
       <c r="F12" t="n">
-        <v>0.383457426516249</v>
+        <v>0.4596339159861402</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4150866568795972</v>
+        <v>0.3401127979171685</v>
       </c>
       <c r="H12" t="n">
-        <v>2.152449720068356</v>
+        <v>1.3323467705593</v>
       </c>
       <c r="I12" t="n">
-        <v>1.935146486573327</v>
+        <v>0.6223058805060513</v>
       </c>
       <c r="J12" t="n">
-        <v>0.6275293388083805</v>
+        <v>1.281084336553496</v>
       </c>
       <c r="K12" t="n">
-        <v>1.281338156021846</v>
+        <v>0.9516954908843471</v>
       </c>
       <c r="L12" t="n">
-        <v>1.083549616316934</v>
+        <v>0.5188731215142023</v>
       </c>
       <c r="M12" t="n">
-        <v>0.6442721916081721</v>
+        <v>0.5831919048796619</v>
       </c>
       <c r="N12" t="n">
-        <v>1.030403411143044</v>
+        <v>1.024911880588555</v>
       </c>
       <c r="O12" t="n">
-        <v>0.671700192632227</v>
+        <v>0.6080195916440598</v>
       </c>
       <c r="P12" t="n">
-        <v>147.758535937583</v>
+        <v>148.1569559156235</v>
       </c>
       <c r="Q12" t="n">
-        <v>236.7364711529617</v>
+        <v>237.1348911310021</v>
       </c>
     </row>
     <row r="13">
@@ -1127,52 +1127,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.936598822857115</v>
+        <v>0.9459096371182126</v>
       </c>
       <c r="C13" t="n">
-        <v>0.676331093628245</v>
+        <v>0.7967340990043751</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.305834075231696</v>
+        <v>0.65188885276268</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7318682124280292</v>
+        <v>-0.3335805652377259</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3686637235304958</v>
+        <v>0.4093617901414278</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4239639634900492</v>
+        <v>0.361702505653732</v>
       </c>
       <c r="H13" t="n">
-        <v>2.164375467266201</v>
+        <v>1.359240015911157</v>
       </c>
       <c r="I13" t="n">
-        <v>1.966885947984972</v>
+        <v>0.6953978827385</v>
       </c>
       <c r="J13" t="n">
-        <v>0.6572808009555304</v>
+        <v>1.385072145620972</v>
       </c>
       <c r="K13" t="n">
-        <v>1.312083374470251</v>
+        <v>1.040235014179736</v>
       </c>
       <c r="L13" t="n">
-        <v>1.095038395090183</v>
+        <v>0.5122750573076691</v>
       </c>
       <c r="M13" t="n">
-        <v>0.6511251519408916</v>
+        <v>0.6014170812786515</v>
       </c>
       <c r="N13" t="n">
-        <v>1.03105363778427</v>
+        <v>1.026493238962508</v>
       </c>
       <c r="O13" t="n">
-        <v>0.678844897673894</v>
+        <v>0.6270206515336706</v>
       </c>
       <c r="P13" t="n">
-        <v>147.7162136382619</v>
+        <v>148.0338664252234</v>
       </c>
       <c r="Q13" t="n">
-        <v>236.6941488536405</v>
+        <v>237.0118016406021</v>
       </c>
     </row>
     <row r="14">
@@ -1182,52 +1182,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9353687269806984</v>
+        <v>0.9428837515304759</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6746929260552996</v>
+        <v>0.7929866763093781</v>
       </c>
       <c r="D14" t="n">
-        <v>-1.339645100785567</v>
+        <v>0.6179640828249768</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7206761185780313</v>
+        <v>-0.4229613805189001</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3551245317612216</v>
+        <v>0.363767683933491</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4321896202797176</v>
+        <v>0.3819366165118496</v>
       </c>
       <c r="H14" t="n">
-        <v>2.175329901369555</v>
+        <v>1.384299048727896</v>
       </c>
       <c r="I14" t="n">
-        <v>1.995726891816625</v>
+        <v>0.7631670805199965</v>
       </c>
       <c r="J14" t="n">
-        <v>0.6847163708919056</v>
+        <v>1.477904090556207</v>
       </c>
       <c r="K14" t="n">
-        <v>1.340221387580428</v>
+        <v>1.120535585538102</v>
       </c>
       <c r="L14" t="n">
-        <v>1.105298789433486</v>
+        <v>0.5042638441309165</v>
       </c>
       <c r="M14" t="n">
-        <v>0.6574113022147685</v>
+        <v>0.6180102074495611</v>
       </c>
       <c r="N14" t="n">
-        <v>1.03165613372374</v>
+        <v>1.027975305372828</v>
       </c>
       <c r="O14" t="n">
-        <v>0.6853986623790548</v>
+        <v>0.6443201814381823</v>
       </c>
       <c r="P14" t="n">
-        <v>147.677781702419</v>
+        <v>147.9250012190087</v>
       </c>
       <c r="Q14" t="n">
-        <v>236.6557169177976</v>
+        <v>236.9029364343873</v>
       </c>
     </row>
     <row r="15">
@@ -1237,52 +1237,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9342332738727506</v>
+        <v>0.9400684208999198</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6731918111025704</v>
+        <v>0.7895197577812665</v>
       </c>
       <c r="D15" t="n">
-        <v>-1.370330818023601</v>
+        <v>0.5867212274052462</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7103873426607479</v>
+        <v>-0.5027924873891687</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3427590781006576</v>
+        <v>0.3225102052168319</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4397824004408457</v>
+        <v>0.4007627454017836</v>
       </c>
       <c r="H15" t="n">
-        <v>2.185367863970454</v>
+        <v>1.407482348889071</v>
       </c>
       <c r="I15" t="n">
-        <v>2.0219019348033</v>
+        <v>0.8255788006904344</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7099376060800268</v>
+        <v>1.560817598267973</v>
       </c>
       <c r="K15" t="n">
-        <v>1.365920063184081</v>
+        <v>1.19319846653952</v>
       </c>
       <c r="L15" t="n">
-        <v>1.114468544899663</v>
+        <v>0.4954397692932827</v>
       </c>
       <c r="M15" t="n">
-        <v>0.6631609159478909</v>
+        <v>0.6330582480323462</v>
       </c>
       <c r="N15" t="n">
-        <v>1.03221227402151</v>
+        <v>1.029354242824529</v>
       </c>
       <c r="O15" t="n">
-        <v>0.6913930490721375</v>
+        <v>0.6600088482623149</v>
       </c>
       <c r="P15" t="n">
-        <v>147.6429504376998</v>
+        <v>147.828771368252</v>
       </c>
       <c r="Q15" t="n">
-        <v>236.6208856530784</v>
+        <v>236.8067065836306</v>
       </c>
     </row>
     <row r="16">
@@ -1292,52 +1292,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9331883706073372</v>
+        <v>0.9374629662720828</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6718191198633219</v>
+        <v>0.786329290367429</v>
       </c>
       <c r="D16" t="n">
-        <v>-1.398154215957012</v>
+        <v>0.5581004449976874</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7009518418437498</v>
+        <v>-0.5741736587877342</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3314846532847667</v>
+        <v>0.2852317529188856</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4467696733880023</v>
+        <v>0.4181854324951446</v>
       </c>
       <c r="H16" t="n">
-        <v>2.194547056607971</v>
+        <v>1.428817019176153</v>
       </c>
       <c r="I16" t="n">
-        <v>2.045635407652998</v>
+        <v>0.8827525845421972</v>
       </c>
       <c r="J16" t="n">
-        <v>0.7330671782600817</v>
+        <v>1.634954905606675</v>
       </c>
       <c r="K16" t="n">
-        <v>1.38935129295654</v>
+        <v>1.258853466008718</v>
       </c>
       <c r="L16" t="n">
-        <v>1.122662573031754</v>
+        <v>0.4862308340899921</v>
       </c>
       <c r="M16" t="n">
-        <v>0.6684083133743942</v>
+        <v>0.6466725852354842</v>
       </c>
       <c r="N16" t="n">
-        <v>1.032724063375998</v>
+        <v>1.030630383866735</v>
       </c>
       <c r="O16" t="n">
-        <v>0.696863839070697</v>
+        <v>0.6742027759857537</v>
       </c>
       <c r="P16" t="n">
-        <v>147.6114241784589</v>
+        <v>147.743660652835</v>
       </c>
       <c r="Q16" t="n">
-        <v>236.5893593938376</v>
+        <v>236.7215958682136</v>
       </c>
     </row>
     <row r="17">
@@ -1347,52 +1347,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9322292914725795</v>
+        <v>0.9350617339176918</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6705661429434666</v>
+        <v>0.7834048549274092</v>
       </c>
       <c r="D17" t="n">
-        <v>-1.423363179404204</v>
+        <v>0.5319896360954477</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6923174221574557</v>
+        <v>-0.638076629018532</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3212190647503443</v>
+        <v>0.2515814662136737</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4531830399782801</v>
+        <v>0.4342424843056165</v>
       </c>
       <c r="H17" t="n">
-        <v>2.202925719040471</v>
+        <v>1.448372732429353</v>
       </c>
       <c r="I17" t="n">
-        <v>2.067138757135144</v>
+        <v>0.9349123656101346</v>
       </c>
       <c r="J17" t="n">
-        <v>0.7542330323297722</v>
+        <v>1.701325267020383</v>
       </c>
       <c r="K17" t="n">
-        <v>1.410685894732458</v>
+        <v>1.318118521813912</v>
       </c>
       <c r="L17" t="n">
-        <v>1.130001029515396</v>
+        <v>0.4769529398582722</v>
       </c>
       <c r="M17" t="n">
-        <v>0.6731887105249762</v>
+        <v>0.6589707765186681</v>
       </c>
       <c r="N17" t="n">
-        <v>1.033193816421594</v>
+        <v>1.031806497672967</v>
       </c>
       <c r="O17" t="n">
-        <v>0.7018477476247655</v>
+        <v>0.6870245267326283</v>
       </c>
       <c r="P17" t="n">
-        <v>147.5829183466957</v>
+        <v>147.6683043626184</v>
       </c>
       <c r="Q17" t="n">
-        <v>236.5608535620744</v>
+        <v>236.6462395779971</v>
       </c>
     </row>
     <row r="18">
@@ -1402,52 +1402,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9313510754916479</v>
+        <v>0.9328559299654746</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6694242696487922</v>
+        <v>0.7807325885547336</v>
       </c>
       <c r="D18" t="n">
-        <v>-1.446186640158281</v>
+        <v>0.5082449535326128</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6844320065817254</v>
+        <v>-0.6953535196997336</v>
       </c>
       <c r="F18" t="n">
-        <v>0.3118847591857364</v>
+        <v>0.2212263832907123</v>
       </c>
       <c r="G18" t="n">
-        <v>0.459055674286583</v>
+        <v>0.4489927054908853</v>
       </c>
       <c r="H18" t="n">
-        <v>2.210561431019801</v>
+        <v>1.46624218996809</v>
       </c>
       <c r="I18" t="n">
-        <v>2.086607263010646</v>
+        <v>0.9823454975610524</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7735628265045567</v>
+        <v>1.7608137058431</v>
       </c>
       <c r="K18" t="n">
-        <v>1.430085044757601</v>
+        <v>1.371580047986346</v>
       </c>
       <c r="L18" t="n">
-        <v>1.136562504002569</v>
+        <v>0.4678198784402257</v>
       </c>
       <c r="M18" t="n">
-        <v>0.6775364745064157</v>
+        <v>0.6700691796306447</v>
       </c>
       <c r="N18" t="n">
-        <v>1.033623963024499</v>
+        <v>1.032886891445482</v>
       </c>
       <c r="O18" t="n">
-        <v>0.7063806049200073</v>
+        <v>0.6985954118419433</v>
       </c>
       <c r="P18" t="n">
-        <v>147.5571675630704</v>
+        <v>147.6014972749892</v>
       </c>
       <c r="Q18" t="n">
-        <v>236.535102778449</v>
+        <v>236.5794324903679</v>
       </c>
     </row>
     <row r="19">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9305485059034564</v>
+        <v>0.9308348939518725</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6683851826273604</v>
+        <v>0.7782966660626333</v>
       </c>
       <c r="D19" t="n">
-        <v>-1.466837463321724</v>
+        <v>0.4867081109336105</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6772426242827401</v>
+        <v>-0.7467565673103627</v>
       </c>
       <c r="F19" t="n">
-        <v>0.3034069301282839</v>
+        <v>0.1938558674266838</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4644224608183126</v>
+        <v>0.4625073826198584</v>
       </c>
       <c r="H19" t="n">
-        <v>2.217509810716672</v>
+        <v>1.482531214889157</v>
       </c>
       <c r="I19" t="n">
-        <v>2.104222500087242</v>
+        <v>1.025368178285518</v>
       </c>
       <c r="J19" t="n">
-        <v>0.7911864100365322</v>
+        <v>1.81420150355206</v>
       </c>
       <c r="K19" t="n">
-        <v>1.447704210600706</v>
+        <v>1.419785139500392</v>
       </c>
       <c r="L19" t="n">
-        <v>1.142440977152252</v>
+        <v>0.4589828263079266</v>
       </c>
       <c r="M19" t="n">
-        <v>0.6814854810033099</v>
+        <v>0.6800789532251813</v>
       </c>
       <c r="N19" t="n">
-        <v>1.034017058333001</v>
+        <v>1.033876786635818</v>
       </c>
       <c r="O19" t="n">
-        <v>0.7104977287990446</v>
+        <v>0.7090313222214872</v>
       </c>
       <c r="P19" t="n">
-        <v>147.5339213301722</v>
+        <v>147.5421855194715</v>
       </c>
       <c r="Q19" t="n">
-        <v>236.5118565455509</v>
+        <v>236.5201207348501</v>
       </c>
     </row>
     <row r="20">
@@ -1512,52 +1512,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9298163301575275</v>
+        <v>0.9289875121385954</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6674405773789858</v>
+        <v>0.7760806444410077</v>
       </c>
       <c r="D20" t="n">
-        <v>-1.485510169887309</v>
+        <v>0.467213714224978</v>
       </c>
       <c r="E20" t="n">
-        <v>0.6706965649769598</v>
+        <v>-0.792922984535209</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2957139835089757</v>
+        <v>0.1691879854522503</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4693185234026979</v>
+        <v>0.474860833311653</v>
       </c>
       <c r="H20" t="n">
-        <v>2.223826390362061</v>
+        <v>1.497349761676808</v>
       </c>
       <c r="I20" t="n">
-        <v>2.120150395571658</v>
+        <v>1.064310804237123</v>
       </c>
       <c r="J20" t="n">
-        <v>0.8072329934818122</v>
+        <v>1.86215047658606</v>
       </c>
       <c r="K20" t="n">
-        <v>1.463692183628847</v>
+        <v>1.463230338485407</v>
       </c>
       <c r="L20" t="n">
-        <v>1.147710878907217</v>
+        <v>0.4505409910247341</v>
       </c>
       <c r="M20" t="n">
-        <v>0.6850682618562167</v>
+        <v>0.6891014680811912</v>
       </c>
       <c r="N20" t="n">
-        <v>1.034375675024884</v>
+        <v>1.034781626707627</v>
       </c>
       <c r="O20" t="n">
-        <v>0.7142330360502385</v>
+        <v>0.7184379442140979</v>
       </c>
       <c r="P20" t="n">
-        <v>147.5129471733601</v>
+        <v>147.4894670007541</v>
       </c>
       <c r="Q20" t="n">
-        <v>236.4908823887388</v>
+        <v>236.4674022161327</v>
       </c>
     </row>
     <row r="21">
@@ -1567,52 +1567,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9291492996017775</v>
+        <v>0.927301937698613</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6665829258034538</v>
+        <v>0.7740677961905862</v>
       </c>
       <c r="D21" t="n">
-        <v>-1.502387337741498</v>
+        <v>0.4495962369875341</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6647429142621165</v>
+        <v>-0.8344233998698578</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2887397179078333</v>
+        <v>0.1469596668233126</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4737789598003917</v>
+        <v>0.4861322773531722</v>
       </c>
       <c r="H21" t="n">
-        <v>2.229561510396765</v>
+        <v>1.51080968719569</v>
       </c>
       <c r="I21" t="n">
-        <v>2.134546689151825</v>
+        <v>1.099504036247474</v>
       </c>
       <c r="J21" t="n">
-        <v>0.8218273850901227</v>
+        <v>1.905253286277559</v>
       </c>
       <c r="K21" t="n">
-        <v>1.478186547861441</v>
+        <v>1.502378966119406</v>
       </c>
       <c r="L21" t="n">
-        <v>1.152429763079111</v>
+        <v>0.4425573318822009</v>
       </c>
       <c r="M21" t="n">
-        <v>0.6883160319216688</v>
+        <v>0.697231867712006</v>
       </c>
       <c r="N21" t="n">
-        <v>1.034702383868517</v>
+        <v>1.035607214188434</v>
       </c>
       <c r="O21" t="n">
-        <v>0.7176190704111877</v>
+        <v>0.726914471789444</v>
       </c>
       <c r="P21" t="n">
-        <v>147.4940287911751</v>
+        <v>147.4425490329818</v>
       </c>
       <c r="Q21" t="n">
-        <v>236.4719640065537</v>
+        <v>236.4204842483604</v>
       </c>
     </row>
     <row r="22">
@@ -1622,272 +1622,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9285425559386579</v>
+        <v>0.9257663889288323</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6658049580501126</v>
+        <v>0.7722419176175079</v>
       </c>
       <c r="D22" t="n">
-        <v>-1.517636750271902</v>
+        <v>0.4336942446169381</v>
       </c>
       <c r="E22" t="n">
-        <v>0.6593369481018612</v>
+        <v>-0.8717553985775086</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2824217946090715</v>
+        <v>0.1269338446500565</v>
       </c>
       <c r="G22" t="n">
-        <v>0.47783625746947</v>
+        <v>0.4964004990472476</v>
       </c>
       <c r="H22" t="n">
-        <v>2.234763784345569</v>
+        <v>1.523019345621263</v>
       </c>
       <c r="I22" t="n">
-        <v>2.147554500747316</v>
+        <v>1.131270361208902</v>
       </c>
       <c r="J22" t="n">
-        <v>0.8350792184513475</v>
+        <v>1.944026730415978</v>
       </c>
       <c r="K22" t="n">
-        <v>1.491316859599332</v>
+        <v>1.53764854581244</v>
       </c>
       <c r="L22" t="n">
-        <v>1.156665751787601</v>
+        <v>0.4350685808144919</v>
       </c>
       <c r="M22" t="n">
-        <v>0.6912570126005739</v>
+        <v>0.7045569523092137</v>
       </c>
       <c r="N22" t="n">
-        <v>1.034999564438208</v>
+        <v>1.036359319708327</v>
       </c>
       <c r="O22" t="n">
-        <v>0.7206852547262631</v>
+        <v>0.7345514004029703</v>
       </c>
       <c r="P22" t="n">
-        <v>147.4769743255444</v>
+        <v>147.4007444406386</v>
       </c>
       <c r="Q22" t="n">
-        <v>236.454909540923</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>model_14_3_21</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0.927991152254571</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.665099819947337</v>
-      </c>
-      <c r="D23" t="n">
-        <v>-1.531408119692538</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.6544300707346933</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.2767016538259403</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0.4815234964439396</v>
-      </c>
-      <c r="H23" t="n">
-        <v>2.239479046085692</v>
-      </c>
-      <c r="I23" t="n">
-        <v>2.159301535492319</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.8471076180502464</v>
-      </c>
-      <c r="K23" t="n">
-        <v>1.503204821531673</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1.160462990225389</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.6939189408309443</v>
-      </c>
-      <c r="N23" t="n">
-        <v>1.035269639712047</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0.7234605067523514</v>
-      </c>
-      <c r="P23" t="n">
-        <v>147.4616005010096</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>236.4395357163882</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>model_14_3_22</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>0.9274908652105227</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.6644611936891593</v>
-      </c>
-      <c r="D24" t="n">
-        <v>-1.543835194852332</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.6499834947772873</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.271529090398507</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0.4848689182111004</v>
-      </c>
-      <c r="H24" t="n">
-        <v>2.243749542814731</v>
-      </c>
-      <c r="I24" t="n">
-        <v>2.169901881704956</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.8580076647521275</v>
-      </c>
-      <c r="K24" t="n">
-        <v>1.513954773228542</v>
-      </c>
-      <c r="L24" t="n">
-        <v>1.163870416902348</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0.6963252962596579</v>
-      </c>
-      <c r="N24" t="n">
-        <v>1.035514678264234</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0.7259693057135079</v>
-      </c>
-      <c r="P24" t="n">
-        <v>147.4477533926087</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>236.4256886079873</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>model_14_3_23</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>0.9270369761321833</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.6638832258487087</v>
-      </c>
-      <c r="D25" t="n">
-        <v>-1.555054190908229</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.6459535071670883</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.2668500168721071</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.4879040765679235</v>
-      </c>
-      <c r="H25" t="n">
-        <v>2.247614416425121</v>
-      </c>
-      <c r="I25" t="n">
-        <v>2.179471731474231</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.86788651391156</v>
-      </c>
-      <c r="K25" t="n">
-        <v>1.523679122692895</v>
-      </c>
-      <c r="L25" t="n">
-        <v>1.166928161342043</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.6985013074919212</v>
-      </c>
-      <c r="N25" t="n">
-        <v>1.035736991282196</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0.7282379542488927</v>
-      </c>
-      <c r="P25" t="n">
-        <v>147.4352729137206</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>236.4132081290992</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>model_14_3_24</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>0.926625751641629</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.6633604135607571</v>
-      </c>
-      <c r="D26" t="n">
-        <v>-1.565175507672562</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.6423060670774765</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.2626217011257639</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.4906539366297746</v>
-      </c>
-      <c r="H26" t="n">
-        <v>2.251110464601982</v>
-      </c>
-      <c r="I26" t="n">
-        <v>2.188105256294039</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.8768276109938815</v>
-      </c>
-      <c r="K26" t="n">
-        <v>1.532466678547934</v>
-      </c>
-      <c r="L26" t="n">
-        <v>1.169676889814228</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.7004669418536286</v>
-      </c>
-      <c r="N26" t="n">
-        <v>1.035938407359202</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0.7302872697348021</v>
-      </c>
-      <c r="P26" t="n">
-        <v>147.4240324261333</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>236.4019676415119</v>
+        <v>236.3786796560172</v>
       </c>
     </row>
   </sheetData>
